--- a/Excel/InsuranceData.xlsx
+++ b/Excel/InsuranceData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Insurance Provider</t>
   </si>
@@ -21,27 +21,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>Reliance</t>
-  </si>
-  <si>
-    <t>Student Silver</t>
-  </si>
-  <si>
-    <t>$100,000</t>
-  </si>
-  <si>
-    <t>Bajaj Allianz</t>
-  </si>
-  <si>
-    <t>Student Elite</t>
-  </si>
-  <si>
-    <t>Niva Bupa (formerly known as Max Bupa)</t>
-  </si>
-  <si>
-    <t>Student Travel Assure Pro</t>
   </si>
 </sst>
 </file>
@@ -86,15 +65,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.6484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.60546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -108,39 +87,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
